--- a/New files/Harborview Medical Center/Invoice-4212785.xlsx
+++ b/New files/Harborview Medical Center/Invoice-4212785.xlsx
@@ -43716,4 +43716,276 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7B740158B06348BBFDD0A82FAE521C" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b9ca6de6a992593ec3295afdb73980d5">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be6600-ce97-4f91-b2b5-90c5c801df6a" xmlns:ns3="4ff60255-49bc-4e52-8060-8afe9711eecb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c3625fcdb5b97911e04df756c65f947" ns2:_="" ns3:_="">
+    <xsd:import namespace="45be6600-ce97-4f91-b2b5-90c5c801df6a"/>
+    <xsd:import namespace="4ff60255-49bc-4e52-8060-8afe9711eecb"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="45be6600-ce97-4f91-b2b5-90c5c801df6a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="94b3629e-20aa-442c-aac2-3c67759175e0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="24" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4ff60255-49bc-4e52-8060-8afe9711eecb" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6c69ecb4-97a0-434f-9afd-668c5bcfe455}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="4ff60255-49bc-4e52-8060-8afe9711eecb">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0379D6A8-59C5-4739-812F-A7F642F255DC}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFE4830C-97C9-46C1-9B1E-3DBFFEACCAD8}"/>
 </file>
--- a/New files/Harborview Medical Center/Invoice-4212785.xlsx
+++ b/New files/Harborview Medical Center/Invoice-4212785.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{519EEB31-186B-48D2-BB43-38E39DCBB5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A772D21-0821-4A6C-9A14-3894E770A73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1740" windowWidth="29040" windowHeight="15840" xr2:uid="{042C9951-1752-4AA2-B40F-C3E6F3A6911F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B5D12F2B-C87F-4D6A-8595-734E4118DF28}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -1786,20 +1786,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>134620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>883920</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A4D2B2-9FC4-E6FC-3F56-EF3AC7D7156C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80500EF3-E284-9D18-3198-7BF8C6CF9580}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2150,7 +2150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8814B835-F833-4EB3-97BF-DA11FDDF50C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A755C593-EA81-4B5B-BA99-C277A70DDC8D}">
   <dimension ref="A1:M353"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -2159,15 +2159,16 @@
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -11126,29 +11127,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6463BF44-9404-4E44-AE83-81898BB69CBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B645CEC-2302-4EAF-9D82-00227771738E}">
   <dimension ref="A1:P719"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
